--- a/TradeSystem.Orchestration/Templates/SwapReport.xlsx
+++ b/TradeSystem.Orchestration/Templates/SwapReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Account</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>Rollover 3 days (Monday = 0)</t>
-  </si>
-  <si>
     <t>Major leverage</t>
   </si>
   <si>
@@ -56,7 +53,22 @@
     <t>Swap short</t>
   </si>
   <si>
-    <t>Swap types: Swap calculation method. 0 - in points; 1 - in the symbol base currency; 2 - by interest; 3 - in the margin currency</t>
+    <t>Trade mode</t>
+  </si>
+  <si>
+    <t>Margin mode</t>
+  </si>
+  <si>
+    <t>Margin divider</t>
+  </si>
+  <si>
+    <t>Margin currency</t>
+  </si>
+  <si>
+    <t>Rollover 3 days</t>
+  </si>
+  <si>
+    <t>Symbol leverage?</t>
   </si>
 </sst>
 </file>
@@ -387,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,15 +410,16 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -417,28 +430,40 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
+      <c r="O1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TradeSystem.Orchestration/Templates/SwapReport.xlsx
+++ b/TradeSystem.Orchestration/Templates/SwapReport.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Order history" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Account</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Symbol leverage?</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Digits</t>
+  </si>
+  <si>
+    <t>Ask</t>
+  </si>
+  <si>
+    <t>Bid</t>
   </si>
 </sst>
 </file>
@@ -399,70 +411,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
     </row>
